--- a/data/final/output/GeneratedInvoices.xlsx
+++ b/data/final/output/GeneratedInvoices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Loclt\Project_out\loclt7\DaElectric\data\final\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DF758F-F5FE-4A37-847A-180A0434FA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F50208-D4AE-45AB-B557-76AB420F54FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{41AB8A55-0524-4A88-A23F-6D1C9F885B49}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -783,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F0112C-AEDF-4C1B-BFFD-89D3F41B2B89}">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1136,7 +1136,6 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <f>B2</f>
         <v>10</v>
       </c>
     </row>
@@ -1227,7 +1226,6 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
-        <f>B8</f>
         <v>20000</v>
       </c>
     </row>
@@ -1263,9 +1261,8 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="16" t="str">
-        <f>A11</f>
-        <v>Đak Đoa, ngày      tháng      năm 2024</v>
+      <c r="D11" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="16"/>
     </row>
@@ -1280,837 +1277,991 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
+    <row r="13" ht="77.25" customHeight="true">
+      <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="13" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" ht="17.25" customHeight="true">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>10.0</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <f>B2</f>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E14" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" customHeight="true">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.4" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>12.0</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>12.0</v>
+        <v>2776.0</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2776.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>12.0</v>
+        <v>20000.0</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.4" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>2776.0</v>
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>53312.0</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>53312.0</v>
+      </c>
+    </row>
+    <row r="22" ht="85.25" customHeight="true">
+      <c r="A22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="true">
+      <c r="A23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" ht="75.0" customHeight="true">
+      <c r="A24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" ht="77.25" customHeight="true">
+      <c r="A25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" ht="17.25" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" customHeight="true">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="15.0" customHeight="true">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.4" customHeight="true">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.0" customHeight="true">
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.0" customHeight="true">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4" t="n">
         <v>2776.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4">
-        <f>B8</f>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>53312.0</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>53312.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="16">
-        <f>A11</f>
-      </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <f>B2</f>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>2776.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.0" customHeight="true">
       <c r="A32" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>1.0</v>
+        <v>20000.0</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
-        <v>3</v>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.4" customHeight="true">
       <c r="A33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="n">
-        <v>15.0</v>
+        <v>9</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>58864.0</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>58864.0</v>
+      </c>
+    </row>
+    <row r="34" ht="85.25" customHeight="true">
+      <c r="A34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="true">
+      <c r="A35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" ht="75.0" customHeight="true">
+      <c r="A36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" ht="77.25" customHeight="true">
+      <c r="A37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="true">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" customHeight="true">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" ht="15.0" customHeight="true">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.4" customHeight="true">
+      <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="4" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="B41" s="4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.0" customHeight="true">
+      <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B42" s="4" t="n">
         <v>14.0</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E42" s="4" t="n">
         <v>14.0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+    <row r="43" ht="15.0" customHeight="true">
+      <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B43" s="4" t="n">
         <v>2776.0</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E43" s="4" t="n">
         <v>2776.0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+    <row r="44" ht="15.0" customHeight="true">
+      <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B44" s="4" t="n">
         <v>20000.0</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="4">
-        <f>B8</f>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="E44" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.4" customHeight="true">
+      <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="6" t="n">
+      <c r="B45" s="6" t="n">
         <v>58864.0</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="6" t="n">
-        <v>58864.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="16">
-        <f>A11</f>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43">
-      <c r="A43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <f>B2</f>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>58864.0</v>
+      </c>
+    </row>
+    <row r="46" ht="85.25" customHeight="true">
+      <c r="A46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="true">
+      <c r="A47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" ht="75.0" customHeight="true">
+      <c r="A48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" ht="77.25" customHeight="true">
+      <c r="A49" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" ht="17.25" customHeight="true">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" customHeight="true">
+      <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="4" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="4" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="4" t="n">
-        <v>2776.0</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>2776.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="4" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="4">
-        <f>B8</f>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="6" t="n">
-        <v>58864.0</v>
+      <c r="B51" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" ht="15.0" customHeight="true">
+      <c r="A52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.4" customHeight="true">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.0" customHeight="true">
+      <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.0" customHeight="true">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>2776.0</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>2776.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.0" customHeight="true">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.4" customHeight="true">
+      <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="6" t="n">
-        <v>58864.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="14" t="s">
+      <c r="B57" s="6" t="n">
+        <v>61640.0</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>61640.0</v>
+      </c>
+    </row>
+    <row r="58" ht="85.25" customHeight="true">
+      <c r="A58" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="15" t="s">
+      <c r="B58" s="14"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="16" t="s">
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="true">
+      <c r="A59" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="16">
-        <f>A11</f>
-      </c>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="s">
+      <c r="B59" s="16"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" ht="75.0" customHeight="true">
+      <c r="A60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="11" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57">
-      <c r="A57" s="12" t="s">
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" ht="77.25" customHeight="true">
+      <c r="A61" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="13" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" ht="17.25" customHeight="true">
+      <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B62" s="1" t="n">
         <v>10.0</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="1">
-        <f>B2</f>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="E62" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="63" ht="17.25" customHeight="true">
+      <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="4" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="4" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="4" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="4" t="n">
-        <v>2776.0</v>
+      <c r="B63" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="4" t="n">
-        <v>2776.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" ht="15.0" customHeight="true">
       <c r="A64" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B64" s="4" t="n">
-        <v>20000.0</v>
+        <v>2.0</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="4">
-        <f>B8</f>
-      </c>
-    </row>
-    <row r="65">
+      <c r="D64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.4" customHeight="true">
       <c r="A65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="6" t="n">
-        <v>61640.0</v>
+        <v>4</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>12.0</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.0" customHeight="true">
+      <c r="A66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.0" customHeight="true">
+      <c r="A67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>2776.0</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>2776.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.0" customHeight="true">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="69" ht="15.4" customHeight="true">
+      <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="6" t="n">
-        <v>61640.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="14" t="s">
+      <c r="B69" s="6" t="n">
+        <v>47760.0</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>47760.0</v>
+      </c>
+    </row>
+    <row r="70" ht="85.25" customHeight="true">
+      <c r="A70" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="15" t="s">
+      <c r="B70" s="14"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="15"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="16" t="s">
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="true">
+      <c r="A71" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="16">
-        <f>A11</f>
-      </c>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="s">
+      <c r="B71" s="16"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" ht="75.0" customHeight="true">
+      <c r="A72" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="11" t="s">
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71">
-      <c r="A71" s="12" t="s">
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" ht="77.25" customHeight="true">
+      <c r="A73" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="13" t="s">
+      <c r="B73" s="12"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" ht="17.25" customHeight="true">
+      <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B74" s="1" t="n">
         <v>10.0</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="1">
-        <f>B2</f>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="E74" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="75" ht="17.25" customHeight="true">
+      <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="4" t="n">
-        <v>12.0</v>
+      <c r="B75" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" ht="15.0" customHeight="true">
       <c r="A76" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B76" s="4" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.4" customHeight="true">
       <c r="A77" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>2776.0</v>
+        <v>114.0</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E77" s="4" t="n">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.0" customHeight="true">
+      <c r="A78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.0" customHeight="true">
+      <c r="A79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="4" t="n">
         <v>2776.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="4" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="4">
-        <f>B8</f>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="6" t="n">
-        <v>47760.0</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>2776.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.0" customHeight="true">
+      <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.4" customHeight="true">
+      <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="6" t="n">
-        <v>47760.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="14" t="s">
+      <c r="B81" s="6" t="n">
+        <v>319808.0</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>319808.0</v>
+      </c>
+    </row>
+    <row r="82" ht="85.25" customHeight="true">
+      <c r="A82" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="15" t="s">
+      <c r="B82" s="14"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="15"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="16" t="s">
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="true">
+      <c r="A83" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="16">
-        <f>A11</f>
-      </c>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="s">
+      <c r="B83" s="16"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" ht="75.0" customHeight="true">
+      <c r="A84" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="11" t="s">
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85">
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" ht="77.25" customHeight="true">
       <c r="A85" s="12" t="s">
         <v>22</v>
       </c>
@@ -2121,7 +2272,7 @@
       </c>
       <c r="E85" s="13"/>
     </row>
-    <row r="86">
+    <row r="86" ht="17.25" customHeight="true">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -2132,71 +2283,71 @@
       <c r="D86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E86" s="1">
-        <f>B2</f>
-      </c>
-    </row>
-    <row r="87">
+      <c r="E86" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="87" ht="17.25" customHeight="true">
       <c r="A87" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" ht="15.0" customHeight="true">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.4" customHeight="true">
       <c r="A89" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="n">
-        <v>114.0</v>
+        <v>12.0</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>114.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="90" ht="15.0" customHeight="true">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="4" t="n">
-        <v>108.0</v>
+        <v>12.0</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>108.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="91" ht="15.0" customHeight="true">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -2211,7 +2362,7 @@
         <v>2776.0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.0" customHeight="true">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
@@ -2222,26 +2373,26 @@
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="4">
-        <f>B8</f>
-      </c>
-    </row>
-    <row r="93">
+      <c r="E92" s="4" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="93" ht="15.4" customHeight="true">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="6" t="n">
-        <v>319808.0</v>
+        <v>53312.0</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="6" t="n">
-        <v>319808.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>53312.0</v>
+      </c>
+    </row>
+    <row r="94" ht="85.25" customHeight="true">
       <c r="A94" s="14" t="s">
         <v>19</v>
       </c>
@@ -2252,18 +2403,18 @@
       </c>
       <c r="E94" s="15"/>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="true">
       <c r="A95" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="16">
-        <f>A11</f>
+      <c r="D95" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="E95" s="16"/>
     </row>
-    <row r="96">
+    <row r="96" ht="75.0" customHeight="true">
       <c r="A96" s="11" t="s">
         <v>23</v>
       </c>
@@ -2274,508 +2425,336 @@
       </c>
       <c r="E96" s="11"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99">
-      <c r="A99" s="12" t="s">
+    <row r="97" ht="77.25" customHeight="true">
+      <c r="A97" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="13" t="s">
+      <c r="B97" s="12"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="13"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98" ht="17.25" customHeight="true">
+      <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B98" s="1" t="n">
         <v>10.0</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1" t="s">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E100" s="1">
-        <f>B2</f>
-      </c>
-    </row>
-    <row r="101">
+      <c r="E98" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="99" ht="17.25" customHeight="true">
+      <c r="A99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" ht="15.0" customHeight="true">
+      <c r="A100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.4" customHeight="true">
       <c r="A101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>18.0</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>4</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="102" ht="15.0" customHeight="true">
       <c r="A102" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B102" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="103" ht="15.0" customHeight="true">
       <c r="A103" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B103" s="4" t="n">
-        <v>12.0</v>
+        <v>2776.0</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>2776.0</v>
+      </c>
+    </row>
+    <row r="104" ht="15.0" customHeight="true">
       <c r="A104" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B104" s="4" t="n">
-        <v>12.0</v>
+        <v>20000.0</v>
       </c>
       <c r="C104" s="4"/>
-      <c r="D104" s="5" t="s">
-        <v>5</v>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="105" ht="15.4" customHeight="true">
       <c r="A105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="4" t="n">
-        <v>2776.0</v>
+        <v>9</v>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>36656.0</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E105" s="6" t="n">
+        <v>36656.0</v>
+      </c>
+    </row>
+    <row r="106" ht="85.25" customHeight="true">
+      <c r="A106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="true">
+      <c r="A107" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="16"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" ht="75.0" customHeight="true">
+      <c r="A108" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="11"/>
+    </row>
+    <row r="109" ht="77.25" customHeight="true">
+      <c r="A109" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="13"/>
+    </row>
+    <row r="110" ht="17.25" customHeight="true">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="111" ht="17.25" customHeight="true">
+      <c r="A111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" ht="15.0" customHeight="true">
+      <c r="A112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="4" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="113" ht="15.4" customHeight="true">
+      <c r="A113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="4" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="114" ht="15.0" customHeight="true">
+      <c r="A114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="4" t="n">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="115" ht="15.0" customHeight="true">
+      <c r="A115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="4" t="n">
         <v>2776.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="4" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="4">
-        <f>B8</f>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="6" t="n">
-        <v>53312.0</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="6" t="n">
-        <v>53312.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="15"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="16">
-        <f>A11</f>
-      </c>
-      <c r="E109" s="16"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="11"/>
-    </row>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113">
-      <c r="A113" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="13"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E114" s="1">
-        <f>B2</f>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>7</v>
+      </c>
+      <c r="E115" s="4" t="n">
+        <v>2776.0</v>
+      </c>
+    </row>
+    <row r="116" ht="15.0" customHeight="true">
       <c r="A116" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B116" s="4" t="n">
-        <v>12.0</v>
+        <v>20000.0</v>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="5" t="s">
-        <v>3</v>
+      <c r="D116" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="117" ht="15.4" customHeight="true">
       <c r="A117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="4" t="n">
-        <v>18.0</v>
+        <v>9</v>
+      </c>
+      <c r="B117" s="6" t="n">
+        <v>236528.0</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" s="4" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B118" s="4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E118" s="4" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="4" t="n">
-        <v>2776.0</v>
-      </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="4" t="n">
-        <v>2776.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="4" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="4">
-        <f>B8</f>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="6" t="n">
-        <v>36656.0</v>
-      </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="6" t="n">
-        <v>36656.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="14" t="s">
+      <c r="E117" s="6" t="n">
+        <v>236528.0</v>
+      </c>
+    </row>
+    <row r="118" ht="85.25" customHeight="true">
+      <c r="A118" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="15" t="s">
+      <c r="B118" s="14"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="15"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="16" t="s">
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="true">
+      <c r="A119" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="16">
-        <f>A11</f>
-      </c>
-      <c r="E123" s="16"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="11" t="s">
+      <c r="B119" s="16"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="16"/>
+    </row>
+    <row r="120" ht="75.0" customHeight="true">
+      <c r="A120" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="11" t="s">
+      <c r="B120" s="11"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="11"/>
-    </row>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127">
-      <c r="A127" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" s="13"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1">
-        <f>B2</f>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B130" s="4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="4" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E131" s="4" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="4" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="4" t="n">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="4" t="n">
-        <v>2776.0</v>
-      </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="4" t="n">
-        <v>2776.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="4" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="4">
-        <f>B8</f>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" s="6" t="n">
-        <v>236528.0</v>
-      </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="6" t="n">
-        <v>236528.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="15"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="16">
-        <f>A11</f>
-      </c>
-      <c r="E137" s="16"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" s="11"/>
-    </row>
-    <row r="139"/>
-    <row r="140"/>
+      <c r="E120" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="80">
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:B1"/>
@@ -2784,6 +2763,78 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:E120"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
